--- a/WebImages/data/RF_BRC_UP_HistoricalResults.xlsx
+++ b/WebImages/data/RF_BRC_UP_HistoricalResults.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aalok Devkota\UCI\Investment-Forcasting\Aalok\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aalok Devkota\UCI\AssetAllocation\WebImages\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC347B4C-59F2-4A74-806F-D6CB61F407BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1957F4-CAEB-4B8A-9806-9F7F7617982E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3095,7 +3095,7 @@
   <dimension ref="A1:D220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="D192" sqref="D1:M1048576"/>
+      <selection activeCell="A2" sqref="A2:D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
